--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-593130.1322172842</v>
+        <v>-598992.4522524637</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12374667.22860045</v>
+        <v>12373487.26981961</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>335.0091279781265</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>192.8019160090315</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226574</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968133</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.54630244039141</v>
+        <v>151.9699017069108</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>294.79728569932</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>93.75800671040896</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968133</v>
+        <v>50.6435372072262</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>179.9570833866859</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>237.1307481683587</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>339.9241266221492</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>176.7712133448442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>14.73684009420514</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>19.85905444009093</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>302.5915658488295</v>
+        <v>35.65971766201012</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>43.75514875447403</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,13 +1582,13 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>21.73839879806353</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1610,10 +1610,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>44.97366081453243</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>182.1168898750154</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>182.1613342176307</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,16 +1819,16 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>128.3355113488668</v>
+        <v>35.32273735234426</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658119</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973565006</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167839</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.7231469819608</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380052</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667963</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.9727556664469</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883904</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541108</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658301</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038926</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656624</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
@@ -3275,7 +3275,7 @@
         <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U35" t="n">
         <v>122.8352329541629</v>
@@ -3326,7 +3326,7 @@
         <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799144</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412923</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135897</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875322</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277545</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059299</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006892</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880377</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908618</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509259</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380501</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357228</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596442</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253646</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370839</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369162</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792622</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593858</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875322</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277545</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059299</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880377</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908618</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509259</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380501</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357228</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596442</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253646</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370839</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369162</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593858</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793.5954997698794</v>
+        <v>795.048192718383</v>
       </c>
       <c r="C2" t="n">
-        <v>793.5954997698794</v>
+        <v>401.8726912213136</v>
       </c>
       <c r="D2" t="n">
-        <v>793.5954997698794</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698794</v>
+        <v>63.47963265754942</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402612</v>
+        <v>50.62559822793124</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>82.35955709919648</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>575.6798488177253</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1113.938633827819</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737751</v>
+        <v>1566.541973461492</v>
       </c>
       <c r="W2" t="n">
-        <v>1980.033559627618</v>
+        <v>1195.54293842978</v>
       </c>
       <c r="X2" t="n">
-        <v>1590.580954560675</v>
+        <v>1195.54293842978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.090245481276</v>
+        <v>1195.54293842978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569815</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>901.4935904670748</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1732.268603590617</v>
+        <v>240.135570830791</v>
       </c>
       <c r="C4" t="n">
-        <v>1562.063485656606</v>
+        <v>240.135570830791</v>
       </c>
       <c r="D4" t="n">
-        <v>1406.430372559121</v>
+        <v>240.135570830791</v>
       </c>
       <c r="E4" t="n">
-        <v>1406.430372559121</v>
+        <v>240.135570830791</v>
       </c>
       <c r="F4" t="n">
-        <v>1406.430372559121</v>
+        <v>240.135570830791</v>
       </c>
       <c r="G4" t="n">
-        <v>1406.430372559121</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="H4" t="n">
-        <v>1406.430372559121</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196199</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196199</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.17098830614</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.29862817994</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518204</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549413</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591121</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.3607733677</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737751</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>2050.881980370328</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>2050.881980370328</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>2050.881980370328</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="X4" t="n">
-        <v>2050.881980370328</v>
+        <v>393.6405220498928</v>
       </c>
       <c r="Y4" t="n">
-        <v>1827.769919186971</v>
+        <v>393.6405220498928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1736.295310311876</v>
+        <v>1307.672593705812</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.119808814806</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D5" t="n">
-        <v>957.6786800314742</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E5" t="n">
-        <v>555.0951551480186</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>138.2007166779964</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>423.0718195642694</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>936.6744981739579</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1450.277176783646</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653168</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023273</v>
+        <v>1704.163302785211</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.790056023273</v>
+        <v>1704.163302785211</v>
       </c>
       <c r="Y5" t="n">
-        <v>2136.790056023273</v>
+        <v>1307.672593705812</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653886</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875482</v>
+        <v>1155.938290490838</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875482</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1669.540969100526</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>761.1754375941678</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>475.7366458360687</v>
       </c>
       <c r="V7" t="n">
-        <v>705.4166736854401</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="W7" t="n">
-        <v>422.0862716166177</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="X7" t="n">
-        <v>422.0862716166177</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.974210433261</v>
+        <v>209.7573006568929</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.181742510704</v>
+        <v>1401.14840977443</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.006241013635</v>
+        <v>1401.14840977443</v>
       </c>
       <c r="D8" t="n">
-        <v>807.5651122303025</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E8" t="n">
-        <v>807.5651122303025</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>390.6706737602802</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2187.091723920772</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>2187.091723920772</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.634347577648</v>
+        <v>2187.091723920772</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.181742510704</v>
+        <v>1797.639118853829</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.181742510704</v>
+        <v>1401.14840977443</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
         <v>1960.027136360783</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.2642166768698</v>
+        <v>387.9625972412056</v>
       </c>
       <c r="C10" t="n">
-        <v>366.2642166768698</v>
+        <v>217.7574793071948</v>
       </c>
       <c r="D10" t="n">
-        <v>366.2642166768698</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>366.2642166768698</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>366.2642166768698</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>366.2642166768698</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X10" t="n">
-        <v>366.2642166768698</v>
+        <v>387.9625972412056</v>
       </c>
       <c r="Y10" t="n">
-        <v>366.2642166768698</v>
+        <v>387.9625972412056</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.950696367412</v>
+        <v>1434.218555009979</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055462</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572339</v>
+        <v>722.3132251185756</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2921.999930786569</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2921.999930786569</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2921.999930786569</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2604.34360086582</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2279.649166932615</v>
+        <v>1762.917025575182</v>
       </c>
     </row>
     <row r="12">
@@ -5127,16 +5127,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.6374311877011</v>
+        <v>305.4047163160378</v>
       </c>
       <c r="C13" t="n">
-        <v>460.2285883998841</v>
+        <v>305.4047163160378</v>
       </c>
       <c r="D13" t="n">
-        <v>376.3917504485927</v>
+        <v>305.4047163160378</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>305.4047163160378</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1452.535521860493</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1321.515713189237</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1157.592936503665</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.790056457679</v>
+        <v>943.9504198917595</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.606986424697</v>
+        <v>943.9504198917595</v>
       </c>
       <c r="W13" t="n">
-        <v>985.6490078407942</v>
+        <v>732.416292969131</v>
       </c>
       <c r="X13" t="n">
-        <v>823.3649607699712</v>
+        <v>570.1322458983079</v>
       </c>
       <c r="Y13" t="n">
-        <v>672.0491747328084</v>
+        <v>418.8164598611452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1434.218555009979</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.839328659103</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1067.411388442404</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
         <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.611459508387</v>
+        <v>2372.970769028949</v>
       </c>
       <c r="Y14" t="n">
-        <v>1762.917025575182</v>
+        <v>2048.276335095744</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>658.8001958221562</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420615</v>
+        <v>655.0952099420616</v>
       </c>
       <c r="C16" t="n">
         <v>556.6863671542446</v>
@@ -5425,7 +5425,7 @@
         <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208437</v>
@@ -5434,28 +5434,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
@@ -5464,22 +5464,22 @@
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245443</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="W16" t="n">
-        <v>936.0428256245443</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="X16" t="n">
-        <v>806.4109959792244</v>
+        <v>919.8227395243318</v>
       </c>
       <c r="Y16" t="n">
-        <v>655.0952099420615</v>
+        <v>768.5069534871691</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511122</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823213</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803437</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404055</v>
@@ -5768,34 +5768,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829238</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840158</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443167</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H21" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5838,7 +5838,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918815</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161908</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755553</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662623</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485128</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835518</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423635</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043033</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929724</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404867</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245266</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652543</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374211</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>143.5810516071569</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>225.4160927170988</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>389.5437325908986</v>
       </c>
       <c r="M34" t="n">
-        <v>607.0749002898374</v>
+        <v>575.8353109291626</v>
       </c>
       <c r="N34" t="n">
-        <v>895.5376270481166</v>
+        <v>870.6770655353546</v>
       </c>
       <c r="O34" t="n">
-        <v>1163.515486816895</v>
+        <v>1033.381832577063</v>
       </c>
       <c r="P34" t="n">
-        <v>1388.664745320543</v>
+        <v>1264.910118928624</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250197</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273691</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400718</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045801</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027486</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G35" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,13 +6974,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7023,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F37" t="n">
         <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
         <v>1098.202162476279</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924211</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7196,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885586</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369564</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218797</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634908</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072649</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229757</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222394</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>313.6614512960392</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>499.9530296343033</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879411</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296491</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918791</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161887</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194215</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330077</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983994</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974513</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
         <v>827.8895422975447</v>
@@ -7400,10 +7400,10 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
@@ -7451,7 +7451,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229825</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222401</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960399</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M43" t="n">
-        <v>499.953029634304</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879418</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414175</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924207</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411548</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829233</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071058</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188065</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224688</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,19 +7722,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411548</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411548</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885586</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369564</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218797</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634908</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588723</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072644</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462901</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411548</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1059.426580900608</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532861</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918791</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161887</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194215</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330077</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983994</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974513</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>182.314865506956</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>658.4862820353998</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>203.3343718525577</v>
+        <v>399.6446499995801</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>538.6709705465836</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405043</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>93.76504805760486</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>406.6596591947254</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>457.1386964627902</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0418287534719</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8541,10 +8541,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>569.9919810238545</v>
       </c>
       <c r="O9" t="n">
-        <v>507.6329599720908</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8775,7 +8775,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N15" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,16 +9243,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.005984747515</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>108.8653421701425</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,25 +10902,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,16 +11139,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>15.57386823853722</v>
+        <v>282.5057164253566</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362792</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>7.828518324542848</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>187.6803868553387</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>265.5347442862346</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>132.3184324039111</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>32.32569525124804</v>
+        <v>125.3384692477705</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-5.613700051435072e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1085699.253880661</v>
+        <v>1085097.706266901</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1085699.253880661</v>
+        <v>1085097.706266901</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966026.8241882764</v>
+        <v>966026.8241882765</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966026.8241882765</v>
+        <v>966026.8241882764</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1089768.436735118</v>
+        <v>1089768.436735119</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="C2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="D2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026923</v>
       </c>
       <c r="E2" t="n">
         <v>175294.9257668407</v>
@@ -26341,7 +26341,7 @@
         <v>198365.3959026924</v>
       </c>
       <c r="L2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026929</v>
       </c>
       <c r="M2" t="n">
         <v>198365.3959026924</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
-        <v>1.251989061176796e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728536</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277125</v>
+        <v>27767.69404277113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541665</v>
+        <v>195056.1330166295</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805101</v>
       </c>
       <c r="F4" t="n">
         <v>99893.08150805102</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
@@ -26442,10 +26442,10 @@
         <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996333</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996333</v>
+        <v>147651.9979996332</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239469.359883344</v>
+        <v>-235719.4616828095</v>
       </c>
       <c r="C6" t="n">
-        <v>-57264.41159148791</v>
+        <v>-61860.8046487543</v>
       </c>
       <c r="D6" t="n">
-        <v>-63280.21324926117</v>
+        <v>-71016.50247265294</v>
       </c>
       <c r="E6" t="n">
-        <v>-89906.73691509542</v>
+        <v>-90116.46846178493</v>
       </c>
       <c r="F6" t="n">
-        <v>22215.82455894916</v>
+        <v>22006.09301225962</v>
       </c>
       <c r="G6" t="n">
-        <v>-54881.6969491422</v>
+        <v>-54881.69694914232</v>
       </c>
       <c r="H6" t="n">
-        <v>-7456.371412460481</v>
+        <v>-7456.371412460408</v>
       </c>
       <c r="I6" t="n">
-        <v>-7456.371412460314</v>
+        <v>-7456.371412460372</v>
       </c>
       <c r="J6" t="n">
-        <v>-220498.2890097461</v>
+        <v>-213982.0038551728</v>
       </c>
       <c r="K6" t="n">
-        <v>-13696.1398152434</v>
+        <v>-13696.13981524343</v>
       </c>
       <c r="L6" t="n">
-        <v>-68878.7287498645</v>
+        <v>-72927.56596033627</v>
       </c>
       <c r="M6" t="n">
-        <v>-49657.20087208351</v>
+        <v>-50708.89588327171</v>
       </c>
       <c r="N6" t="n">
-        <v>-7456.371412460489</v>
+        <v>-7456.371412460496</v>
       </c>
       <c r="O6" t="n">
-        <v>-35224.06545523176</v>
+        <v>-35224.06545523155</v>
       </c>
       <c r="P6" t="n">
-        <v>-7456.371412460467</v>
+        <v>-7456.371412460459</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014445</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293141</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014435</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660671</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551366</v>
+        <v>17.58004954287459</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.640279090678205e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.640279090678205e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>46.57758951737242</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>174.4871286723639</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343378</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626729</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.80963606399685</v>
+        <v>31.38603679747746</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27549,16 +27549,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>94.44646078277867</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>315.2731212464679</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626729</v>
+        <v>124.5704364758544</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,22 +27825,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>53.40477792676228</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>26.18880355902536</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>69.10700133472761</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>76.42398892490317</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>139.3399418723052</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28026,13 +28026,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>262.7253494004271</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>35.71049010668915</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R22" t="n">
-        <v>128.297982108279</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>28.01250026485292</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901124</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566841</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>81.10808140893431</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.868342022474</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.97643844045614</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668696</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733193</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,43 +30378,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668639</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668708</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733098</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.01250026485056</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>39.25646232771864</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>508.7612304376725</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>117.9622589983911</v>
+        <v>314.2725371454135</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>385.4228008160919</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995791</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>3.704701200686629</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>314.2725371454135</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>303.8905267322986</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>44.47799132937547</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="O9" t="n">
-        <v>414.9454010832019</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35495,7 +35495,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N15" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
-        <v>200.058739643768</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065898</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R22" t="n">
-        <v>5.636002634530243</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028111</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039224</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039242</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167599</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>557.2643651184961</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792976</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>43.49509683160102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455031495</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.43320245060862</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>23.49322931597588</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634527888</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634527315</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528004</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.46926427500304</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835692</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
